--- a/Fintech 28-Karibu Project.xlsx
+++ b/Fintech 28-Karibu Project.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Working with API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pauljuma736@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Tryson Mzomba</t>
@@ -427,15 +430,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.25"/>
@@ -443,12 +446,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="16" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="9" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="17" style="0" width="16.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,17 +475,18 @@
       <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>44816.6846784838</v>
       </c>
@@ -510,15 +514,15 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -526,8 +530,9 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -540,7 +545,6 @@
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -548,13 +552,13 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -562,13 +566,14 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
         <v>19</v>
@@ -590,7 +595,10 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -598,37 +606,38 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="6"/>
+      <c r="O8" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -636,30 +645,31 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="10"/>
       <c r="I9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="O9" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -667,30 +677,31 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="10"/>
       <c r="I10" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -699,8 +710,9 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="I11" s="9"/>
@@ -709,12 +721,12 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="6"/>
+        <v>38</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -722,56 +734,60 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G30" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="12"/>
       <c r="F38" s="9"/>
       <c r="G38" s="6"/>
@@ -781,7 +797,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="6"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -790,8 +806,9 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="6"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -799,16 +816,17 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O39" s="9"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="6"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -817,45 +835,48 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O41" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="13"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="12"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="14"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -866,8 +887,9 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -875,16 +897,18 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="15"/>
       <c r="F64" s="9"/>
       <c r="H64" s="9"/>
@@ -893,29 +917,33 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="16"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="12"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="10"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="17"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P7" r:id="rId1" display="pauljuma736@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -937,7 +965,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -960,7 +988,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -983,7 +1011,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Fintech 28-Karibu Project.xlsx
+++ b/Fintech 28-Karibu Project.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -150,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -195,6 +195,13 @@
       <name val="Roboto"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -280,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,7 +332,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,7 +344,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,15 +352,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,13 +443,13 @@
   </sheetPr>
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.25"/>
@@ -670,6 +681,7 @@
       <c r="O9" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -713,7 +725,7 @@
       <c r="X10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="10"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -727,6 +739,9 @@
       <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="P12" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -743,7 +758,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="9"/>
@@ -776,7 +791,7 @@
       <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G30" s="9"/>
@@ -788,7 +803,7 @@
       <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="12"/>
+      <c r="D38" s="13"/>
       <c r="F38" s="9"/>
       <c r="G38" s="6"/>
       <c r="I38" s="9"/>
@@ -853,19 +868,19 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="12"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="13"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="12"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I60" s="6"/>
@@ -877,7 +892,7 @@
       <c r="O60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="14"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -909,7 +924,7 @@
       <c r="O63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="15"/>
+      <c r="D64" s="16"/>
       <c r="F64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -920,7 +935,7 @@
       <c r="N64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="16"/>
+      <c r="D65" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="2"/>
@@ -929,7 +944,7 @@
       <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="12"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="10"/>
@@ -938,11 +953,12 @@
       <c r="F77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="17"/>
+      <c r="D78" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P7" r:id="rId1" display="pauljuma736@gmail.com"/>
+    <hyperlink ref="P12" r:id="rId2" display="trynosm68@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -965,7 +981,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -988,7 +1004,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1011,7 +1027,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
